--- a/medicine/Pharmacie/AmerisourceBergen/AmerisourceBergen.xlsx
+++ b/medicine/Pharmacie/AmerisourceBergen/AmerisourceBergen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AmerisourceBergen NYSE : ABC est une entreprise de commerce de gros de médicaments, basée à Chesterbrook en Pennsylvanie. 
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été fondée en 2001 à la suite d'une fusion entre Bergen Brunswig et AmeriSource.
-En janvier 2015, AmerisourceBergen acquiert pour 2,5 milliards de dollars MWI Veterinary Supply, spécialisée dans la distribution de médicaments vétérinaires et qui possédait un chiffre d'affaires de 3 milliards de dollars en 2014[4],[5].
-En octobre 2015, AmerisourceBergen acquiert Pharmedium Healthcare pour 2,58 milliards de dollars, pour étendre son activité vis-à-vis des hôpitaux et établissements de soins[6].
-En novembre 2017, AmerisourceBergen annonce l'acquisition de H.D. Smith pour 815 millions de dollars[7].
-En janvier 2021, AmerisourceBergen annonce l'acquisition des activités de distributions de Walgreens Boots Alliance, excepté les activités italiennes, allemandes et chinoises, pour 6,5 milliards de dollars[8].
-Dans le cadre de la crise des opioïdes, en juillet 2021, le laboratoire pharmaceutique Johnson &amp; Johnson accepte de payer 5 milliards sur neuf ans et les distributeurs AmerisourceBergen, McKesson, Cardinal Health - fournisseurs de quelque 90 % des médicaments américains - 21 milliards sur 18 ans. Ces sociétés espèrent ainsi mettre fin à près de 4 000 actions intentées au civil par des dizaines d'États américains et collectivités locales, dans le cadre d'une proposition d'accord à l'amiable « historique ». Selon Le Figaro, « la crise américaine des opiacés, déclenchée par la promotion agressive de médicaments anti-douleur très addictifs tels que l'oxycodone dans les années 1990, a fait plus de 500 000 morts par overdose aux États-Unis en deux décennies. »[9]
+En janvier 2015, AmerisourceBergen acquiert pour 2,5 milliards de dollars MWI Veterinary Supply, spécialisée dans la distribution de médicaments vétérinaires et qui possédait un chiffre d'affaires de 3 milliards de dollars en 2014,.
+En octobre 2015, AmerisourceBergen acquiert Pharmedium Healthcare pour 2,58 milliards de dollars, pour étendre son activité vis-à-vis des hôpitaux et établissements de soins.
+En novembre 2017, AmerisourceBergen annonce l'acquisition de H.D. Smith pour 815 millions de dollars.
+En janvier 2021, AmerisourceBergen annonce l'acquisition des activités de distributions de Walgreens Boots Alliance, excepté les activités italiennes, allemandes et chinoises, pour 6,5 milliards de dollars.
+Dans le cadre de la crise des opioïdes, en juillet 2021, le laboratoire pharmaceutique Johnson &amp; Johnson accepte de payer 5 milliards sur neuf ans et les distributeurs AmerisourceBergen, McKesson, Cardinal Health - fournisseurs de quelque 90 % des médicaments américains - 21 milliards sur 18 ans. Ces sociétés espèrent ainsi mettre fin à près de 4 000 actions intentées au civil par des dizaines d'États américains et collectivités locales, dans le cadre d'une proposition d'accord à l'amiable « historique ». Selon Le Figaro, « la crise américaine des opiacés, déclenchée par la promotion agressive de médicaments anti-douleur très addictifs tels que l'oxycodone dans les années 1990, a fait plus de 500 000 morts par overdose aux États-Unis en deux décennies. »
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 2 juillet 2022[10] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 2 juillet 2022 :
 </t>
         </is>
       </c>
